--- a/Excel_Files/Dynamic_Range/1_cm/827_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/1_cm/827_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>168.012</v>
+        <v>3.069</v>
       </c>
       <c r="D2">
-        <v>135.278</v>
+        <v>2.624</v>
       </c>
       <c r="E2">
-        <v>320.229</v>
+        <v>3.528</v>
       </c>
       <c r="F2">
-        <v>490.315</v>
+        <v>3.783</v>
       </c>
       <c r="G2">
-        <v>216.298</v>
+        <v>3.547</v>
       </c>
       <c r="H2">
-        <v>601.596</v>
+        <v>4.167</v>
       </c>
       <c r="I2">
-        <v>101.788</v>
+        <v>3.051</v>
       </c>
       <c r="J2">
-        <v>604.301</v>
+        <v>3.962</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>38.391</v>
+        <v>2.237</v>
       </c>
       <c r="D3">
-        <v>73.703</v>
+        <v>2.135</v>
       </c>
       <c r="E3">
-        <v>62.883</v>
+        <v>2.279</v>
       </c>
       <c r="F3">
-        <v>76.50700000000001</v>
+        <v>2.618</v>
       </c>
       <c r="G3">
-        <v>80.708</v>
+        <v>2.594</v>
       </c>
       <c r="H3">
-        <v>99.705</v>
+        <v>2.582</v>
       </c>
       <c r="I3">
-        <v>49.018</v>
+        <v>2.295</v>
       </c>
       <c r="J3">
-        <v>84.73099999999999</v>
+        <v>2.646</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>14.759</v>
+        <v>1.811</v>
       </c>
       <c r="D4">
-        <v>22.253</v>
+        <v>1.725</v>
       </c>
       <c r="E4">
-        <v>21.97</v>
+        <v>1.759</v>
       </c>
       <c r="F4">
-        <v>16.945</v>
+        <v>1.946</v>
       </c>
       <c r="G4">
-        <v>18.659</v>
+        <v>2.03</v>
       </c>
       <c r="H4">
-        <v>25.134</v>
+        <v>1.954</v>
       </c>
       <c r="I4">
-        <v>18.048</v>
+        <v>1.839</v>
       </c>
       <c r="J4">
-        <v>12.517</v>
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>
